--- a/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.34176695629515</v>
+        <v>19.3048291656274</v>
       </c>
       <c r="C11" t="n">
-        <v>60.91215493401582</v>
+        <v>60.77141251394308</v>
       </c>
       <c r="D11" t="n">
-        <v>67.96104029872151</v>
+        <v>67.83988334153905</v>
       </c>
     </row>
     <row r="12">
